--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23485.03404598981</v>
+        <v>15180.13883833536</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448288</v>
+        <v>11715962.26448287</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3033186.188673034</v>
+        <v>3033186.188673033</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>194.7281928688459</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
-        <v>151.0166294343442</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043575</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>49.19444708964231</v>
+        <v>167.1356617339841</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>30.96909392279457</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>250.9149310014922</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>40.81179447522089</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>206.7616431355546</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>329.1642605864039</v>
       </c>
       <c r="G17" t="n">
-        <v>20.42474254496645</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>40.81179447522066</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>195.6729614720161</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>3.758938321627225</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>401.5266111030789</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>24.83686707040875</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>79.82353686950928</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>204.0461120219738</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>412.7098427725105</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5151692130476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>234.4178403718957</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>149.6157531058528</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>105.1643657254482</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>80.0862151244859</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>216.2742128518895</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>178.0787107184192</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.1292285100307</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>86.70309665560058</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.3971377219257</v>
+        <v>18.98847872300996</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>80.0862151244859</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.5151692130477</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>158.2534696142544</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>111.6145320351662</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>150.948567857593</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>34.5151692130476</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>264.3476845812649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>105.5188043066311</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>77.25430101753298</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>111.2461524850684</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>191.7877781694764</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.1723433222108</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.188007759424337</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>134.8967801895896</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>110.9549233469939</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735097</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>321.9370827829815</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.0124762330265</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>187.9306356540155</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C11" t="n">
-        <v>716.4307943255671</v>
+        <v>643.4043871814431</v>
       </c>
       <c r="D11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2207.785527514056</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1948.71483603557</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1948.71483603557</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1543.859381446603</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1124.716918025914</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
@@ -5211,40 +5211,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199223</v>
       </c>
       <c r="U13" t="n">
-        <v>611.2730910610244</v>
+        <v>502.9859604199223</v>
       </c>
       <c r="V13" t="n">
-        <v>324.3175829314549</v>
+        <v>216.0304522903528</v>
       </c>
       <c r="W13" t="n">
-        <v>324.3175829314549</v>
+        <v>216.0304522903528</v>
       </c>
       <c r="X13" t="n">
-        <v>274.6262222348465</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C14" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D14" t="n">
-        <v>506.3558941930748</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E14" t="n">
-        <v>506.3558941930748</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>78.48846460228259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>2106.878152193703</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.784481314111</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934214</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.3558941930748</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
         <v>335.7952991210684</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="C16" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D16" t="n">
-        <v>1517.87440598441</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2319.103542624282</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T16" t="n">
-        <v>2076.856318527688</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U16" t="n">
-        <v>2076.856318527688</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.900810398119</v>
+        <v>680.809578430913</v>
       </c>
       <c r="W16" t="n">
-        <v>1517.87440598441</v>
+        <v>408.7831740172046</v>
       </c>
       <c r="X16" t="n">
-        <v>1517.87440598441</v>
+        <v>408.7831740172046</v>
       </c>
       <c r="Y16" t="n">
-        <v>1517.87440598441</v>
+        <v>408.7831740172046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715602</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715602</v>
+        <v>1519.101784779783</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715602</v>
+        <v>1083.191999954228</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4265856715602</v>
+        <v>649.417255112523</v>
       </c>
       <c r="F17" t="n">
-        <v>337.559156080768</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715602</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1559.098440807865</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="C19" t="n">
-        <v>1559.098440807865</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D19" t="n">
-        <v>1559.098440807865</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E19" t="n">
-        <v>1559.098440807865</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>1559.098440807865</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1559.098440807865</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>1559.098440807865</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>2118.080353351143</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>1831.124845221573</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W19" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X19" t="n">
-        <v>1559.098440807865</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="Y19" t="n">
-        <v>1559.098440807865</v>
+        <v>547.5837284841764</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1324.558407907193</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>886.4159350906161</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>450.5061502650606</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>450.5061502650606</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>450.5061502650606</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>51.00345894453778</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
@@ -5764,7 +5764,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5785,19 +5785,19 @@
         <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.556325916849</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.556325916849</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W20" t="n">
-        <v>1743.700871327882</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X20" t="n">
-        <v>1324.558407907193</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y20" t="n">
-        <v>1324.558407907193</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,7 +5822,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895473</v>
@@ -5840,7 +5840,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>470.4214336074024</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C22" t="n">
-        <v>470.4214336074024</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D22" t="n">
-        <v>304.5434408089251</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E22" t="n">
-        <v>304.5434408089251</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F22" t="n">
-        <v>127.8363867706813</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895473</v>
@@ -5937,25 +5937,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>662.2400523263896</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1526.868684372189</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C23" t="n">
-        <v>1088.726211555613</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>652.8164267300572</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>652.8164267300572</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
         <v>446.7092428694776</v>
@@ -5986,25 +5986,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X23" t="n">
-        <v>1526.868684372189</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y23" t="n">
-        <v>1526.868684372189</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895473</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895473</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895473</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895473</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T25" t="n">
-        <v>647.4124989156879</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="U25" t="n">
-        <v>369.0258669644309</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="V25" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="W25" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="X25" t="n">
-        <v>82.07035883486139</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.20655154895473</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.028006962829</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="C26" t="n">
-        <v>1495.885534146253</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="D26" t="n">
-        <v>1059.975749320697</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="E26" t="n">
-        <v>626.2010044789922</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F26" t="n">
-        <v>198.3335748882</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>198.3335748882</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X26" t="n">
-        <v>2360.327577447737</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y26" t="n">
-        <v>2360.327577447737</v>
+        <v>1381.083921261709</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>219.7682630657298</v>
+        <v>389.5262668149925</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>745.233184516516</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>745.233184516516</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U28" t="n">
-        <v>745.233184516516</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V28" t="n">
-        <v>745.233184516516</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W28" t="n">
-        <v>639.0065524706087</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X28" t="n">
-        <v>639.0065524706087</v>
+        <v>808.7645562198713</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.5868817847169</v>
+        <v>581.3448855339797</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>699.440097251154</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C29" t="n">
-        <v>699.440097251154</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D29" t="n">
-        <v>699.440097251154</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>265.6653524094492</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>265.6653524094492</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6499,16 +6499,16 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V29" t="n">
-        <v>1526.86868437219</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W29" t="n">
-        <v>1526.86868437219</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="X29" t="n">
-        <v>1107.726220951501</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="Y29" t="n">
-        <v>699.440097251154</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>382.8425480966948</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="C31" t="n">
-        <v>382.8425480966948</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9645552982175</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122815</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="U31" t="n">
-        <v>889.6597230122815</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="V31" t="n">
-        <v>889.6597230122815</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="W31" t="n">
-        <v>889.6597230122815</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="X31" t="n">
-        <v>802.0808375015738</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="Y31" t="n">
-        <v>574.661166815682</v>
+        <v>521.8703274356767</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1154.573267142144</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6736,16 +6736,16 @@
         <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.790516184048</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W32" t="n">
-        <v>1655.935061595081</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X32" t="n">
-        <v>1236.792598174392</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y32" t="n">
-        <v>1236.792598174392</v>
+        <v>465.8895244078715</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6821,10 +6821,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895474</v>
+        <v>389.5262668149925</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>647.412498915688</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>369.025866964431</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>82.07035883486151</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>82.07035883486151</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>82.07035883486151</v>
+        <v>808.7645562198713</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895474</v>
+        <v>581.3448855339797</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1021.590677532125</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="C35" t="n">
-        <v>1021.590677532125</v>
+        <v>1076.743070725563</v>
       </c>
       <c r="D35" t="n">
-        <v>1021.590677532125</v>
+        <v>640.8332859000075</v>
       </c>
       <c r="E35" t="n">
-        <v>587.8159326904199</v>
+        <v>207.0585410583026</v>
       </c>
       <c r="F35" t="n">
-        <v>159.9485030996277</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>159.9485030996277</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,22 +6940,22 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1429.876801232471</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y35" t="n">
-        <v>1021.590677532125</v>
+        <v>1941.185114027047</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.2415639319854</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C37" t="n">
-        <v>199.6798524152103</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122815</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U37" t="n">
-        <v>889.6597230122815</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V37" t="n">
-        <v>889.6597230122815</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="W37" t="n">
-        <v>617.6333185985729</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="X37" t="n">
-        <v>372.2415639319854</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y37" t="n">
-        <v>372.2415639319854</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>713.7271060828765</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C38" t="n">
-        <v>713.7271060828765</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D38" t="n">
-        <v>713.7271060828765</v>
+        <v>1015.433376796231</v>
       </c>
       <c r="E38" t="n">
-        <v>713.7271060828765</v>
+        <v>581.6586319545258</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>153.7912023637336</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7210,16 +7210,16 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783223</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X38" t="n">
-        <v>1122.013229783223</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y38" t="n">
-        <v>713.7271060828765</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644.2679683456939</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C40" t="n">
-        <v>471.7062568289189</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>159.5764025439733</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122815</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122815</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122815</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X40" t="n">
-        <v>644.2679683456939</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y40" t="n">
-        <v>644.2679683456939</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1076.34405614905</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>640.4342713234942</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>640.4342713234942</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895475</v>
+        <v>640.4342713234942</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895475</v>
+        <v>240.9315800029713</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7429,10 +7429,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.256885969251</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.256885969251</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.900983623584</v>
+        <v>1076.34405614905</v>
       </c>
     </row>
     <row r="42">
@@ -7469,37 +7469,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7511,7 +7511,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
         <v>1676.651116233592</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.4659254778331</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C43" t="n">
-        <v>183.4659254778331</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D43" t="n">
-        <v>183.4659254778331</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122816</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V43" t="n">
-        <v>602.704214882712</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W43" t="n">
-        <v>602.704214882712</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X43" t="n">
-        <v>602.704214882712</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y43" t="n">
-        <v>375.2845441968203</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.5064744740458</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>828.5064744740458</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>828.5064744740458</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>828.5064744740458</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184049</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>2060.790516184049</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W44" t="n">
-        <v>1655.935061595082</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X44" t="n">
-        <v>1236.792598174392</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>828.5064744740458</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.4232877204301</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668973</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210676</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960901</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.8411042932946</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C46" t="n">
-        <v>525.2793927765196</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D46" t="n">
-        <v>359.4013999780423</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E46" t="n">
-        <v>189.6433962287795</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F46" t="n">
-        <v>189.6433962287795</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186962</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369942</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755237</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794132</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>702.652302927175</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048585</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355143</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122818</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122818</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122818</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122818</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V46" t="n">
-        <v>889.6597230122818</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W46" t="n">
-        <v>889.6597230122818</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X46" t="n">
-        <v>889.6597230122818</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.6597230122818</v>
+        <v>555.4042596134699</v>
       </c>
     </row>
   </sheetData>
@@ -23260,10 +23260,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>236.822494108454</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>58.6369095812347</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7433900302793</v>
+        <v>75.80217538593757</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>364.538570484523</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23551,19 +23551,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.565053562208959</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23661,7 +23661,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>102.1704786355869</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>77.3243099127192</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>94.42449470848044</v>
       </c>
       <c r="G17" t="n">
-        <v>375.0829218623512</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>21.65253922289377</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>47.2648756479056</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23971,10 +23971,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>263.2653976199014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>13.42442768340351</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>165.0635654613885</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>83.27023171409748</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24195,7 +24195,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>219.5426432729105</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>2.241196013971887</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>175.1724103980885</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24432,7 +24432,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.6303047659852</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>195.019157021392</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>117.4085828356759</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24609,7 +24609,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -24663,10 +24663,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>164.1417746441231</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>162.8516219954357</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>179.2334515554281</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>222.7281893246578</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>18.69552334559668</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -24903,10 +24903,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>156.2347404643211</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.639437058133</v>
+        <v>403.0480960570487</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -25128,22 +25128,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>162.8516219954357</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.6303047659851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>265.3352856806299</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>155.4098039063625</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>13.27064501289948</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25365,19 +25365,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>234.7909711565238</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2410707136194</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>289.9888601006865</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>86.96491185295955</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>19.77446752940891</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25605,16 +25605,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>75.23655777205224</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.03091914113224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>168.648086642183</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33.16364352218051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -25845,7 +25845,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25854,7 +25854,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>312.6338319478904</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>37.05369778253026</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>22.08129235058025</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -26088,7 +26088,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>55.00720146590618</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.09297531</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349565.0929753103</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753103</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349565.0929753103</v>
+        <v>349565.09297531</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349565.0929753103</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349565.0929753103</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="F2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="G2" t="n">
         <v>139826.0371901241</v>
@@ -26340,10 +26340,10 @@
         <v>139826.0371901241</v>
       </c>
       <c r="K2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="L2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="M2" t="n">
         <v>139826.0371901242</v>
@@ -26355,7 +26355,7 @@
         <v>139826.0371901242</v>
       </c>
       <c r="P2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231691</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-457774.5355546125</v>
+        <v>-458415.7736683879</v>
       </c>
       <c r="F6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="G6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="H6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="I6" t="n">
-        <v>93360.66543606317</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="J6" t="n">
-        <v>93360.66543606315</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="K6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="L6" t="n">
-        <v>93360.66543606324</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="M6" t="n">
-        <v>-53690.10296650828</v>
+        <v>-54331.34108028366</v>
       </c>
       <c r="N6" t="n">
-        <v>93360.66543606315</v>
+        <v>92719.42732228777</v>
       </c>
       <c r="O6" t="n">
-        <v>93360.66543606322</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="P6" t="n">
-        <v>93360.66543606317</v>
+        <v>92719.42732228777</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26761,25 +26761,25 @@
         <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31931,28 +31931,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,7 +32232,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699053</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,25 +33967,25 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699064</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548413</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916702</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116989</v>
@@ -35579,7 +35579,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
@@ -35591,7 +35591,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,13 +35643,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
@@ -35658,13 +35658,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917234</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785912</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562349</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,31 +36120,31 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36837,19 +36837,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37074,19 +37074,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37776,28 +37776,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -37961,7 +37961,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916702</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624562</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366647</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -38195,10 +38195,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207649</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
